--- a/datosBrutos/alcaldes/alcaldes-muertos-08022021-dani.xlsx
+++ b/datosBrutos/alcaldes/alcaldes-muertos-08022021-dani.xlsx
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">29 de abril 2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Más de 100 alcaldes asesinados en os sexenios</t>
+    <t xml:space="preserve">Más de 100 alcaldes asesinados en dos sexenios</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.alcaldesdemexico.com/notas-principales/alcaldes-ex-alcaldes-asesinados-en-12-anos/</t>
@@ -2473,26 +2473,24 @@
   <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="F2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5023255813953"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.7953488372093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7813953488372"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.55348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="3.07441860465116"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="60.7906976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="3.2"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="62.5162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9603,12 +9601,12 @@
   <dimension ref="A4:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.3441860465116"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.3162790697675"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
